--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_15.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_18_15.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-214993.7724421478</v>
+        <v>-217457.8358858531</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -662,16 +662,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>36.06002841357776</v>
       </c>
       <c r="G2" t="n">
-        <v>281.8174042201588</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>294.6077643873205</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>71.78072075085878</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -829,13 +829,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>8.217805738716521</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>139.1760394350281</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>262.2618143196426</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>343.5760922334626</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,22 +947,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>70.0787639577046</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>216.1271240687737</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,13 +1130,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>97.32228826427155</v>
+        <v>343.3021384380515</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,25 +1288,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>122.296749699831</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>87.76183839211831</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -1339,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1354,7 +1354,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>136.7848966149554</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,13 +1540,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>55.52079624060472</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,16 +1576,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1658,7 +1658,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1771,7 +1771,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>61.66004604095001</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,19 +1810,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>235.9337881971037</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>115.7063133373723</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>160.6789846282041</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>153.5842618151918</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2251,7 +2251,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>35.88641949135589</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444125</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161909164</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>65.44930784064577</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,7 +2530,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2561,7 +2561,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2716,16 +2716,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>44.75138076689272</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2758,16 +2758,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>248.0455461130018</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3004,10 +3004,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V31" t="n">
-        <v>46.29306638367343</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634797</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>122.6028762599951</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -3193,16 +3193,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>76.17049831699768</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3427,22 +3427,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6315337216687</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>139.1465069965572</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>131.2944603446576</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,10 +3712,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3904,7 +3904,7 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
         <v>142.9621736065881</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
-        <v>156.7416385096048</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
       </c>
       <c r="V46" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y46" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
   </sheetData>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1428.708183220263</v>
+        <v>1127.748203495404</v>
       </c>
       <c r="C2" t="n">
-        <v>1059.745666279851</v>
+        <v>758.7856865549927</v>
       </c>
       <c r="D2" t="n">
-        <v>1059.745666279851</v>
+        <v>400.5199879482422</v>
       </c>
       <c r="E2" t="n">
-        <v>1059.745666279851</v>
+        <v>400.5199879482422</v>
       </c>
       <c r="F2" t="n">
-        <v>648.7597614902432</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="G2" t="n">
         <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.391247391209</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810556</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4349,7 +4349,7 @@
         <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4361,19 +4361,19 @@
         <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066531</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796417</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X2" t="n">
-        <v>2205.447355260196</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y2" t="n">
-        <v>1815.308023284384</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
         <v>176.0213023927779</v>
@@ -4404,31 +4404,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,43 +4462,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>785.9944709118756</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>617.0582879839687</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>466.941648571633</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>319.0285549892399</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>172.1386074913295</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4510,28 +4510,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U4" t="n">
-        <v>1645.778206672847</v>
+        <v>1416.425065783663</v>
       </c>
       <c r="V4" t="n">
-        <v>1391.09371846696</v>
+        <v>1416.425065783663</v>
       </c>
       <c r="W4" t="n">
-        <v>1250.51186045178</v>
+        <v>1416.425065783663</v>
       </c>
       <c r="X4" t="n">
-        <v>1250.51186045178</v>
+        <v>1188.435514885645</v>
       </c>
       <c r="Y4" t="n">
-        <v>1029.71928130825</v>
+        <v>967.6429357421154</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1891.353293732295</v>
+        <v>1901.535346136984</v>
       </c>
       <c r="C5" t="n">
-        <v>1522.390776791884</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D5" t="n">
-        <v>1164.125078185133</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E5" t="n">
-        <v>1164.125078185133</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F5" t="n">
-        <v>753.1391733955259</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
@@ -4574,10 +4574,10 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4595,22 +4595,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410102</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066532</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796417</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="X5" t="n">
-        <v>2277.953133796417</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="Y5" t="n">
-        <v>2277.953133796417</v>
+        <v>2288.135186201106</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4677,7 +4677,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>533.4780323548191</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>364.5418494269122</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>214.4252100145765</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,31 +4744,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1705.527932658018</v>
+        <v>1856.507917828185</v>
       </c>
       <c r="U7" t="n">
-        <v>1705.527932658018</v>
+        <v>1856.507917828185</v>
       </c>
       <c r="V7" t="n">
-        <v>1450.843444452132</v>
+        <v>1601.823429622298</v>
       </c>
       <c r="W7" t="n">
-        <v>1161.426274415171</v>
+        <v>1312.406259585337</v>
       </c>
       <c r="X7" t="n">
-        <v>933.4367235171535</v>
+        <v>1312.406259585337</v>
       </c>
       <c r="Y7" t="n">
-        <v>715.1264971850588</v>
+        <v>1091.613680441807</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1418.660964416652</v>
+        <v>2291.674678112796</v>
       </c>
       <c r="C8" t="n">
-        <v>1418.660964416652</v>
+        <v>1922.712161172384</v>
       </c>
       <c r="D8" t="n">
-        <v>1320.35562273557</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="X8" t="n">
-        <v>1808.800296392464</v>
+        <v>2678.274518176918</v>
       </c>
       <c r="Y8" t="n">
-        <v>1418.660964416652</v>
+        <v>2678.274518176918</v>
       </c>
     </row>
     <row r="9">
@@ -4878,7 +4878,7 @@
         <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>776.4603107317583</v>
+        <v>714.5294324299979</v>
       </c>
       <c r="C10" t="n">
-        <v>776.4603107317583</v>
+        <v>545.593249502091</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>545.593249502091</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>545.593249502091</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>398.7033020041806</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U10" t="n">
-        <v>1638.191681214136</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V10" t="n">
-        <v>1638.191681214136</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="W10" t="n">
-        <v>1348.774511177176</v>
+        <v>935.322011573528</v>
       </c>
       <c r="X10" t="n">
-        <v>1120.784960279158</v>
+        <v>935.322011573528</v>
       </c>
       <c r="Y10" t="n">
-        <v>899.9923811356281</v>
+        <v>714.5294324299979</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5018,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,7 +5027,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,25 +5036,25 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
@@ -5118,19 +5118,19 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>738.7889117913853</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M12" t="n">
-        <v>1336.167399417937</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N12" t="n">
-        <v>1896.176478190824</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O12" t="n">
         <v>1896.176478190824</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>296.7882229101294</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>149.8982754122191</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5224,25 +5224,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>2264.108249235165</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1975.033022579363</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1975.033022579363</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1685.615852542402</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X13" t="n">
-        <v>1457.626301644385</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y13" t="n">
-        <v>1236.833722500855</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="14">
@@ -5270,7 +5270,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
@@ -5285,13 +5285,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,22 +5355,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>427.7414352191925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1025.119922845744</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>1652.717886400351</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>2204.627616639638</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>763.7541388327652</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>594.8179559048583</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>444.7013164925226</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5458,28 +5458,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V16" t="n">
-        <v>1669.670361056913</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W16" t="n">
-        <v>1380.253191019953</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X16" t="n">
-        <v>1152.263640121935</v>
+        <v>1166.195182806535</v>
       </c>
       <c r="Y16" t="n">
-        <v>931.4710609784051</v>
+        <v>945.4026036630049</v>
       </c>
     </row>
     <row r="17">
@@ -5504,34 +5504,34 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5592,25 +5592,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>119.2902967703784</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,19 +5647,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>707.672526468518</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
         <v>93.81666304797187</v>
@@ -5671,52 +5671,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2330.088019603117</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2110.486554626058</v>
       </c>
       <c r="U19" t="n">
-        <v>1882.204779583153</v>
+        <v>1821.411327970255</v>
       </c>
       <c r="V19" t="n">
-        <v>1627.520291377266</v>
+        <v>1566.726839764368</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.103121340305</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.113570442288</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.3209912987577</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,13 +5762,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5832,22 +5832,22 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>738.7889117913853</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1366.386875345992</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1918.296605585279</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2341.919755080347</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>835.5837926935562</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>680.448174698413</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>530.3315352860773</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>382.4184417036842</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>235.5284942057738</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
@@ -5908,52 +5908,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2410.714175003133</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2410.714175003133</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V22" t="n">
-        <v>1755.431557602304</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W22" t="n">
-        <v>1466.014387565343</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X22" t="n">
-        <v>1238.024836667326</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y22" t="n">
-        <v>1017.232257523796</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5963,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168602</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362674</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -6002,37 +6002,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6060,25 +6060,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6169,28 +6169,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2380.852671620012</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.997837274916</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1978.396372297858</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1978.396372297858</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1723.711884091971</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1434.29471405501</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>1206.305163156993</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>985.5125840134626</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6200,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6251,25 +6251,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6312,13 +6312,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>763.7541388327643</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>594.8179559048574</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>549.6145409888042</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>549.6145409888042</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1726.910023830708</v>
       </c>
       <c r="V28" t="n">
-        <v>1683.601903741512</v>
+        <v>1472.225535624822</v>
       </c>
       <c r="W28" t="n">
-        <v>1394.184733704551</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>1166.195182806534</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>945.402603663004</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6452,16 +6452,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,10 +6595,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>721.7774158311365</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>552.8412329032296</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
         <v>402.7245934908939</v>
@@ -6652,19 +6652,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1641.625180739884</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1352.208010702924</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1124.218459804906</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>903.4258806613763</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6689,61 +6689,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>801.6918836311989</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908939</v>
+        <v>632.7557007032921</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8426071208989</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>337.9526596229886</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>170.7565603378685</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="35">
@@ -6929,58 +6929,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7008,25 +7008,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.9487421954783</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C37" t="n">
-        <v>491.0125592675714</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D37" t="n">
-        <v>491.0125592675714</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E37" t="n">
-        <v>343.0994656851783</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F37" t="n">
-        <v>343.0994656851783</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G37" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7120,25 +7120,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>2123.556221965915</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U37" t="n">
-        <v>1834.480995310113</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V37" t="n">
-        <v>1579.796507104226</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W37" t="n">
-        <v>1290.379337067265</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X37" t="n">
-        <v>1062.389786169248</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y37" t="n">
-        <v>841.597207025718</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="38">
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1089.57599612053</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>920.6398131926233</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>770.5231737802875</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>622.6100801978944</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>475.720132699984</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>308.5240334148639</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7360,22 +7360,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2264.108249235165</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>2264.108249235165</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>2009.423761029278</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1720.006590992317</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1492.0170400943</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>1271.22446095077</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7400,31 +7400,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7543,13 +7543,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E43" t="n">
         <v>402.7245934908939</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7722,22 +7722,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.04349261611</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345474</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7828,16 +7828,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T46" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8079,7 +8079,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-2.589839328116501e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>370.8160173281337</v>
       </c>
       <c r="G2" t="n">
-        <v>129.1043214332946</v>
+        <v>112.9713457258432</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-3.979039320256561e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>43.04708356698063</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>25.7450400779608</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,16 +23464,16 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>84.77391660561916</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,19 +23698,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>16.20385512672433</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>65.31997266427226</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>125.5054897610401</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890381</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>13.66255928343608</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>30.48882721876579</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24379,10 +24379,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.9259388694759139</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,7 +24418,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24604,16 +24604,16 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>103.8640922513196</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24646,16 +24646,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>38.13892827624238</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24892,10 +24892,10 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V31" t="n">
-        <v>205.8445769401546</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25072,7 +25072,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25081,16 +25081,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>64.12421452922621</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>32.8926045706001</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,10 +25360,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>78.25894333073106</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>9.00025250156628</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,10 +25600,10 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25792,7 +25792,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>137.2878198583898</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1018289.202247516</v>
+        <v>1018289.202247517</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1120805.565943981</v>
+        <v>1120805.56594398</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1120805.565943981</v>
+        <v>1120805.56594398</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1120805.56594398</v>
+        <v>1120805.565943981</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1120805.565943981</v>
+        <v>1120805.56594398</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>274720.9666028984</v>
+        <v>274720.9666028987</v>
       </c>
       <c r="C2" t="n">
         <v>307890.6636991061</v>
       </c>
       <c r="D2" t="n">
-        <v>307890.6636991061</v>
+        <v>307890.663699106</v>
       </c>
       <c r="E2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837521</v>
       </c>
       <c r="F2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837521</v>
       </c>
       <c r="G2" t="n">
         <v>302679.9748837522</v>
       </c>
       <c r="H2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="I2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="J2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="K2" t="n">
-        <v>302679.9748837521</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="L2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="M2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837523</v>
       </c>
       <c r="N2" t="n">
-        <v>302679.9748837522</v>
+        <v>302679.9748837524</v>
       </c>
       <c r="O2" t="n">
         <v>302679.9748837524</v>
       </c>
       <c r="P2" t="n">
-        <v>307890.6636991059</v>
+        <v>307890.6636991061</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>19427.7179936318</v>
+        <v>19427.71799363177</v>
       </c>
     </row>
     <row r="4">
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>40478.22163059735</v>
+        <v>40478.22163059732</v>
       </c>
       <c r="C4" t="n">
         <v>90964.0109881571</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815714</v>
+        <v>90964.0109881571</v>
       </c>
       <c r="E4" t="n">
         <v>11776.97621680582</v>
@@ -26436,28 +26436,28 @@
         <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
+        <v>11776.97621680587</v>
+      </c>
+      <c r="J4" t="n">
         <v>11776.97621680582</v>
-      </c>
-      <c r="J4" t="n">
-        <v>11776.97621680586</v>
       </c>
       <c r="K4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="L4" t="n">
+        <v>11776.97621680586</v>
+      </c>
+      <c r="M4" t="n">
         <v>11776.97621680582</v>
-      </c>
-      <c r="M4" t="n">
-        <v>11776.97621680587</v>
       </c>
       <c r="N4" t="n">
         <v>11776.97621680582</v>
       </c>
       <c r="O4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680583</v>
       </c>
       <c r="P4" t="n">
-        <v>19767.8354798993</v>
+        <v>19767.83547989929</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1202435.941316685</v>
+        <v>-1202657.072630659</v>
       </c>
       <c r="C6" t="n">
         <v>108992.712149556</v>
       </c>
       <c r="D6" t="n">
-        <v>108992.7121495555</v>
+        <v>108992.7121495556</v>
       </c>
       <c r="E6" t="n">
-        <v>-135631.9929643161</v>
+        <v>-135666.7308897519</v>
       </c>
       <c r="F6" t="n">
-        <v>189780.4688430393</v>
+        <v>189745.7309176035</v>
       </c>
       <c r="G6" t="n">
-        <v>189780.4688430392</v>
+        <v>189745.7309176038</v>
       </c>
       <c r="H6" t="n">
-        <v>189780.4688430393</v>
+        <v>189745.7309176037</v>
       </c>
       <c r="I6" t="n">
-        <v>189780.4688430395</v>
+        <v>189745.7309176037</v>
       </c>
       <c r="J6" t="n">
-        <v>-27750.73355423813</v>
+        <v>-27785.47147967391</v>
       </c>
       <c r="K6" t="n">
-        <v>189780.4688430392</v>
+        <v>189745.7309176038</v>
       </c>
       <c r="L6" t="n">
-        <v>189780.4688430393</v>
+        <v>189745.7309176037</v>
       </c>
       <c r="M6" t="n">
-        <v>104725.4409075274</v>
+        <v>104690.7029820918</v>
       </c>
       <c r="N6" t="n">
-        <v>189780.4688430393</v>
+        <v>189745.7309176037</v>
       </c>
       <c r="O6" t="n">
-        <v>189780.4688430394</v>
+        <v>189745.7309176037</v>
       </c>
       <c r="P6" t="n">
-        <v>165530.9943716594</v>
+        <v>165530.9943716596</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26957,13 +26957,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>278.1987997483757</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,31 +27018,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>341.3068326973557</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>831.4014554022931</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>341.306832697356</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>831.4014554022924</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>297.9503799276103</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27442,7 +27442,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>297.9503799276102</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>157.8080025203117</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>147.3469589015629</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>103.0110774513649</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>67.34563341999086</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27667,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>149.4701853184646</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>2.457529283321094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,13 +27850,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>257.3607533564114</v>
+        <v>11.38090318263147</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,25 +28008,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>57.53523048210626</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>78.26396986690992</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28059,10 +28059,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28074,7 +28074,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.319714707885093e-12</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28482,7 +28482,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.131184035330079e-12</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29281,7 +29281,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31048,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31118,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31200,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31838,22 +31838,22 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>697.0074482175627</v>
+        <v>556.7959610899857</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214699</v>
@@ -32075,25 +32075,25 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>485.927610870024</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32540,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,37 +32552,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>339.3493584601592</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.2560498238272</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32801,7 +32801,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32965,7 +32965,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -33032,16 +33032,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>573.8098963904297</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33257,16 +33257,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33275,16 +33275,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>688.8020111197787</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,7 +33731,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33749,7 +33749,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,13 +33986,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,10 +34442,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34460,7 +34460,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>551.7051287319853</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34775,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35486,22 +35486,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>565.6657361342294</v>
+        <v>425.4542490066523</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071396</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O15" t="n">
         <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>351.9532034556937</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>200.7949786802851</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>213.2742757378057</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36449,7 +36449,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36613,7 +36613,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36680,16 +36680,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>431.6758624684114</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36905,16 +36905,16 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36923,16 +36923,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>546.2057666753343</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37397,7 +37397,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,13 +37634,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,10 +38090,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38108,7 +38108,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>409.1088842875408</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38175,19 +38175,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
